--- a/biology/Botanique/Eschweilera/Eschweilera.xlsx
+++ b/biology/Botanique/Eschweilera/Eschweilera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eschweilera (les Eschweileries) est un genre de plantes à fleurs de la famille des Lecythidaceae. Ce sont des arbres originaires des forêts tropicales humides d'Amérique du Sud et du sud du Mexique. 
 Très proches des Lecythis, ces arbres donnent un bois particulièrement résistant et localement appelé mahot ou maho, en Guyane française, ou encore manbarklak, comme au Venezuela et au Suriname, noms qui désignent globalement le bois de divers autres arbres tropicaux de qualité comparable.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des arbres tropicaux d'Amérique, originaires des pays suivants : Bolivie, Brésil, Colombie, Costa Rica, Équateur,Guyana, Guyane, Honduras, Mexique, Nicaragua, Panama, Pérou, Suriname, Trinité-et-Tobago et Venezuela[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres tropicaux d'Amérique, originaires des pays suivants : Bolivie, Brésil, Colombie, Costa Rica, Équateur,Guyana, Guyane, Honduras, Mexique, Nicaragua, Panama, Pérou, Suriname, Trinité-et-Tobago et Venezuela.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 janvier 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 janvier 2021) :
 Eschweilera aguilarii S.A.Mori (2007)
 Eschweilera alata A.C.Sm. (1939)
 Eschweilera albiflora (DC.) Miers (1874)
@@ -673,23 +689,25 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eschweilerie ailée - Eschweilera alata[4]
-Eschweilerie à fleurs blanches - Eschweilera albiflora[4]
-Eschweilerie de Alvim - Eschweilera alvimii[4]
-Eschweilerie d'Amazonie - Eschweilera amazonica[4]
-Eschweilerie de Manaus - Eschweilera amazoniciformis[4]
-Eschweilerie amplexifoliée - Eschweilera amplexifolia[4]
-Eschweilerie des Andes - Eschweilera andina[4]
-Eschweilerie d'Antioquia - Eschweilera antioquensis[4]
-Eschweilerie apiculée - Eschweilera apiculata[4]
-Eschweilerie à pétioles foncés - Eschweilera atropetiolata[4]
-Eschweilerie de Bagua - Eschweilera baguensis[4]
-Eschweilerie de Beeby - Eschweilera beebei[4]
-Eschweilerie de Bogotá - Eschweilera bogotensis[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eschweilerie ailée - Eschweilera alata
+Eschweilerie à fleurs blanches - Eschweilera albiflora
+Eschweilerie de Alvim - Eschweilera alvimii
+Eschweilerie d'Amazonie - Eschweilera amazonica
+Eschweilerie de Manaus - Eschweilera amazoniciformis
+Eschweilerie amplexifoliée - Eschweilera amplexifolia
+Eschweilerie des Andes - Eschweilera andina
+Eschweilerie d'Antioquia - Eschweilera antioquensis
+Eschweilerie apiculée - Eschweilera apiculata
+Eschweilerie à pétioles foncés - Eschweilera atropetiolata
+Eschweilerie de Bagua - Eschweilera baguensis
+Eschweilerie de Beeby - Eschweilera beebei
+Eschweilerie de Bogotá - Eschweilera bogotensis
 etc.
-En Guyane, c'est sous le nom de mahot, noir, jaune, blanc, rouge ou gris que l'on désigne communément les espèces de ce genre, mais ce nom est utilisé ailleurs pour désigner d'autres arbres. En créole du XIXe, Mahot gris désigne les espèces du genre Eschweilera et Mahot noir l'espèce Eschweilera coriacea[5], mais le terme mahot peut désigner aussi des arbres différents.
+En Guyane, c'est sous le nom de mahot, noir, jaune, blanc, rouge ou gris que l'on désigne communément les espèces de ce genre, mais ce nom est utilisé ailleurs pour désigner d'autres arbres. En créole du XIXe, Mahot gris désigne les espèces du genre Eschweilera et Mahot noir l'espèce Eschweilera coriacea, mais le terme mahot peut désigner aussi des arbres différents.
 </t>
         </is>
       </c>
@@ -718,9 +736,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de ces arbres est appelé en français maho[t], ou manbarklak pour l'espèce Eschweilera coriacea[6]. Manbarklak est l'appellation commerciale donnée par les hispanophones ou les anglophones pour d'autres arbres de ce genre, ou des espèces proches.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de ces arbres est appelé en français maho[t], ou manbarklak pour l'espèce Eschweilera coriacea. Manbarklak est l'appellation commerciale donnée par les hispanophones ou les anglophones pour d'autres arbres de ce genre, ou des espèces proches.
 </t>
         </is>
       </c>
